--- a/src/ProductInfo.xlsx
+++ b/src/ProductInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD2DCC-3F73-4636-983C-80B5918FF853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E17EC-448F-4DEA-BEB1-892106A1EEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,7 +44,16 @@
     <t>可选全时互联，轻薄便携，支持WIFI6，秒速唤醒，高密度碳纤维，可选编织外观，可选4K超高清屏幕配备；超长续航，极速快充。</t>
   </si>
   <si>
-    <t>【即刻交定金参与预售，享1.1号新年好价！搭载8核10代酷睿处理器！】RTX光追显卡+16G超大存储+100%sRGB色域屏！</t>
+    <t>即刻交定金参与预售，享1.1号新年好价！搭载8核10代酷睿处理器！RTX光追显卡+16G超大存储+100%sRGB色域屏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -438,7 +447,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -464,8 +473,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -478,8 +487,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>101</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
